--- a/Code/Results/Cases/Case_4_71/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_71/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.43650958441635</v>
+        <v>13.38179432741989</v>
       </c>
       <c r="C2">
-        <v>10.68248494933576</v>
+        <v>9.821207075173829</v>
       </c>
       <c r="D2">
-        <v>12.14179866625413</v>
+        <v>15.11605234562326</v>
       </c>
       <c r="E2">
-        <v>13.13835191600486</v>
+        <v>16.54754509988564</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>40.68229349055698</v>
+        <v>49.82800970855569</v>
       </c>
       <c r="H2">
-        <v>12.95217412051371</v>
+        <v>19.46201495482082</v>
       </c>
       <c r="I2">
-        <v>19.31005528814267</v>
+        <v>27.94322330669623</v>
       </c>
       <c r="J2">
-        <v>5.908941574687729</v>
+        <v>9.461007956457282</v>
       </c>
       <c r="K2">
-        <v>13.37512945555445</v>
+        <v>14.2725942627142</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>13.91805014613652</v>
+        <v>21.27912208954055</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.43404884329732</v>
+        <v>13.16826753186891</v>
       </c>
       <c r="C3">
-        <v>10.01785424202226</v>
+        <v>9.666647065647995</v>
       </c>
       <c r="D3">
-        <v>11.63826926052428</v>
+        <v>15.05985833177668</v>
       </c>
       <c r="E3">
-        <v>12.60381119703725</v>
+        <v>16.49197439685554</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>39.61024994619321</v>
+        <v>49.75429207266262</v>
       </c>
       <c r="H3">
-        <v>12.87090281442035</v>
+        <v>19.49564544420134</v>
       </c>
       <c r="I3">
-        <v>19.20605108175268</v>
+        <v>27.9946642613009</v>
       </c>
       <c r="J3">
-        <v>5.822565383321619</v>
+        <v>9.470674058074998</v>
       </c>
       <c r="K3">
-        <v>12.59139349358706</v>
+        <v>14.13226323546643</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>14.13270220631832</v>
+        <v>21.34111704883852</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.8577791573912</v>
+        <v>13.03891796896394</v>
       </c>
       <c r="C4">
-        <v>9.59452221467034</v>
+        <v>9.573317528262857</v>
       </c>
       <c r="D4">
-        <v>11.32704665721356</v>
+        <v>15.02874844705138</v>
       </c>
       <c r="E4">
-        <v>12.27410945788628</v>
+        <v>16.46159628712114</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>38.97760956366273</v>
+        <v>49.72189924423194</v>
       </c>
       <c r="H4">
-        <v>12.8299222721779</v>
+        <v>19.51961667842892</v>
       </c>
       <c r="I4">
-        <v>19.15688079922164</v>
+        <v>28.0314211882182</v>
       </c>
       <c r="J4">
-        <v>5.7724163716721</v>
+        <v>9.478064807865408</v>
       </c>
       <c r="K4">
-        <v>12.10952743564579</v>
+        <v>14.04889636946693</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>14.26804362392294</v>
+        <v>21.38108631688144</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.61710493134056</v>
+        <v>12.98672042628981</v>
       </c>
       <c r="C5">
-        <v>9.418284893302088</v>
+        <v>9.535731069025626</v>
       </c>
       <c r="D5">
-        <v>11.19987042628989</v>
+        <v>15.01693301909318</v>
       </c>
       <c r="E5">
-        <v>12.13955137167574</v>
+        <v>16.45016628363581</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>38.72633887799604</v>
+        <v>49.71193900943327</v>
       </c>
       <c r="H5">
-        <v>12.81538836829255</v>
+        <v>19.53021924043901</v>
       </c>
       <c r="I5">
-        <v>19.14039397559668</v>
+        <v>28.0476976660889</v>
       </c>
       <c r="J5">
-        <v>5.752703217135832</v>
+        <v>9.481442648853584</v>
       </c>
       <c r="K5">
-        <v>11.90940057556928</v>
+        <v>14.01566307864856</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>14.32409706260707</v>
+        <v>21.39785388777137</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.57679312595229</v>
+        <v>12.97808616108288</v>
       </c>
       <c r="C6">
-        <v>9.388799629204872</v>
+        <v>9.529518287474982</v>
       </c>
       <c r="D6">
-        <v>11.17873698192826</v>
+        <v>15.01502338113051</v>
       </c>
       <c r="E6">
-        <v>12.11720136014431</v>
+        <v>16.44832589589446</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>38.68501294348094</v>
+        <v>49.71048086848104</v>
       </c>
       <c r="H6">
-        <v>12.81310357426115</v>
+        <v>19.53203012584893</v>
       </c>
       <c r="I6">
-        <v>19.13786658664772</v>
+        <v>28.05047865657634</v>
       </c>
       <c r="J6">
-        <v>5.749473427135509</v>
+        <v>9.482025643817838</v>
       </c>
       <c r="K6">
-        <v>11.87594869198236</v>
+        <v>14.01019039764888</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>14.33345938598522</v>
+        <v>21.40066713560349</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.85455678112432</v>
+        <v>13.03821184133579</v>
       </c>
       <c r="C7">
-        <v>9.592160334721241</v>
+        <v>9.572808750987333</v>
       </c>
       <c r="D7">
-        <v>11.32533269913827</v>
+        <v>15.02858559861631</v>
       </c>
       <c r="E7">
-        <v>12.27229533445164</v>
+        <v>16.46143828426771</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>38.97419425565651</v>
+        <v>49.72175179523244</v>
       </c>
       <c r="H7">
-        <v>12.82971759530572</v>
+        <v>19.51975629288252</v>
       </c>
       <c r="I7">
-        <v>19.15664426625225</v>
+        <v>28.03163544795392</v>
       </c>
       <c r="J7">
-        <v>5.772147590291533</v>
+        <v>9.478108880546163</v>
       </c>
       <c r="K7">
-        <v>12.10684341235197</v>
+        <v>14.04844513342764</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>14.2687959201103</v>
+        <v>21.3813105063867</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.0957548955838</v>
+        <v>13.30784879736589</v>
       </c>
       <c r="C8">
-        <v>10.45653841422355</v>
+        <v>9.767619540485031</v>
       </c>
       <c r="D8">
-        <v>11.96870097673377</v>
+        <v>15.09597792318332</v>
       </c>
       <c r="E8">
-        <v>12.95444916599946</v>
+        <v>16.52761282910087</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>40.30740121019885</v>
+        <v>49.79992382841471</v>
       </c>
       <c r="H8">
-        <v>12.92225420974404</v>
+        <v>19.4729205529598</v>
       </c>
       <c r="I8">
-        <v>19.27106017303354</v>
+        <v>27.95988507780245</v>
       </c>
       <c r="J8">
-        <v>5.878558545846832</v>
+        <v>9.464038709866442</v>
       </c>
       <c r="K8">
-        <v>13.09219430165325</v>
+        <v>14.22364969478401</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>13.99133207516084</v>
+        <v>21.3001033354688</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.42722246457065</v>
+        <v>13.84738921259609</v>
       </c>
       <c r="C9">
-        <v>12.04793104089404</v>
+        <v>10.15984522275789</v>
       </c>
       <c r="D9">
-        <v>13.20788973395979</v>
+        <v>15.254626493454</v>
       </c>
       <c r="E9">
-        <v>14.27386167660954</v>
+        <v>16.68666548146455</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>43.12055759079121</v>
+        <v>50.05504464462312</v>
       </c>
       <c r="H9">
-        <v>13.17791860528411</v>
+        <v>19.40748675069674</v>
       </c>
       <c r="I9">
-        <v>19.61834225319365</v>
+        <v>27.86033889999142</v>
       </c>
       <c r="J9">
-        <v>6.110241013559635</v>
+        <v>9.447996026827973</v>
       </c>
       <c r="K9">
-        <v>15.2161312841199</v>
+        <v>14.58776768072216</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>13.47496091417431</v>
+        <v>21.15591973487927</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.98275748156681</v>
+        <v>14.24617627047738</v>
       </c>
       <c r="C10">
-        <v>13.20636969610499</v>
+        <v>10.45121263485618</v>
       </c>
       <c r="D10">
-        <v>14.09806662387445</v>
+        <v>15.3866901468615</v>
       </c>
       <c r="E10">
-        <v>15.22519605758073</v>
+        <v>16.82075529777097</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>45.30351815538659</v>
+        <v>50.30398321372026</v>
       </c>
       <c r="H10">
-        <v>13.41567227997066</v>
+        <v>19.37558021312326</v>
       </c>
       <c r="I10">
-        <v>19.95711769091662</v>
+        <v>27.81244478808573</v>
       </c>
       <c r="J10">
-        <v>6.294661289380333</v>
+        <v>9.443245051793406</v>
       </c>
       <c r="K10">
-        <v>16.65588846784225</v>
+        <v>14.86552480499259</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>13.11205009210236</v>
+        <v>21.05910717686086</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.65747072467778</v>
+        <v>14.42725162762469</v>
       </c>
       <c r="C11">
-        <v>13.71190483504096</v>
+        <v>10.5838315514214</v>
       </c>
       <c r="D11">
-        <v>14.49772587764437</v>
+        <v>15.44997857558337</v>
       </c>
       <c r="E11">
-        <v>15.65311769711306</v>
+        <v>16.88534542754508</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>46.32118224351481</v>
+        <v>50.43040202523132</v>
       </c>
       <c r="H11">
-        <v>13.53568492052232</v>
+        <v>19.36458746058991</v>
       </c>
       <c r="I11">
-        <v>20.13126536753122</v>
+        <v>27.79616568421258</v>
       </c>
       <c r="J11">
-        <v>6.381696651026339</v>
+        <v>9.442608846861743</v>
       </c>
       <c r="K11">
-        <v>17.28082129952925</v>
+        <v>14.99360776174957</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.95047649001466</v>
+        <v>21.01703134016554</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.90834516462074</v>
+        <v>14.49570292811852</v>
       </c>
       <c r="C12">
-        <v>13.90034206416996</v>
+        <v>10.63401107575497</v>
       </c>
       <c r="D12">
-        <v>14.6482613511223</v>
+        <v>15.47439148782505</v>
       </c>
       <c r="E12">
-        <v>15.81441764187591</v>
+        <v>16.91030614704051</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>46.71007299592242</v>
+        <v>50.48014767080872</v>
       </c>
       <c r="H12">
-        <v>13.58292038959727</v>
+        <v>19.36093188446038</v>
       </c>
       <c r="I12">
-        <v>20.2002471075054</v>
+        <v>27.79079509656031</v>
       </c>
       <c r="J12">
-        <v>6.415112544627773</v>
+        <v>9.442586844540852</v>
       </c>
       <c r="K12">
-        <v>17.51326276793598</v>
+        <v>15.04231596496779</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>12.88979896680198</v>
+        <v>21.00137989335181</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.85451875753327</v>
+        <v>14.48096704816838</v>
       </c>
       <c r="C13">
-        <v>13.85989057465156</v>
+        <v>10.62320660787971</v>
       </c>
       <c r="D13">
-        <v>14.61587722057247</v>
+        <v>15.46911409780287</v>
       </c>
       <c r="E13">
-        <v>15.77971242806075</v>
+        <v>16.90490833308327</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>46.62616151882209</v>
+        <v>50.46935109315061</v>
       </c>
       <c r="H13">
-        <v>13.57266643710354</v>
+        <v>19.36169661306526</v>
       </c>
       <c r="I13">
-        <v>20.18525314231852</v>
+        <v>27.79191641017301</v>
       </c>
       <c r="J13">
-        <v>6.407895369849928</v>
+        <v>9.442581853884201</v>
       </c>
       <c r="K13">
-        <v>17.46338761448964</v>
+        <v>15.0318173011259</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12.90284435070646</v>
+        <v>21.00473819300112</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.67820235996039</v>
+        <v>14.4328859130556</v>
       </c>
       <c r="C14">
-        <v>13.72746722830795</v>
+        <v>10.58796094672831</v>
       </c>
       <c r="D14">
-        <v>14.51012687541456</v>
+        <v>15.45197817115405</v>
       </c>
       <c r="E14">
-        <v>15.66640305038015</v>
+        <v>16.88738899055044</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>46.35310584990201</v>
+        <v>50.43445721067583</v>
       </c>
       <c r="H14">
-        <v>13.53953465909801</v>
+        <v>19.36427654668875</v>
       </c>
       <c r="I14">
-        <v>20.13687879843967</v>
+        <v>27.79570792085074</v>
       </c>
       <c r="J14">
-        <v>6.384436586532615</v>
+        <v>9.442602651849597</v>
       </c>
       <c r="K14">
-        <v>17.30002805721018</v>
+        <v>14.99761113162658</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.9454743336289</v>
+        <v>21.01573804361726</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.56960451252483</v>
+        <v>14.403417433249</v>
       </c>
       <c r="C15">
-        <v>13.64596643482019</v>
+        <v>10.56636521652736</v>
       </c>
       <c r="D15">
-        <v>14.44524567938375</v>
+        <v>15.44153967193721</v>
       </c>
       <c r="E15">
-        <v>15.59689981077101</v>
+        <v>16.87672279097873</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>46.18631044330486</v>
+        <v>50.41332702294169</v>
       </c>
       <c r="H15">
-        <v>13.5194760508322</v>
+        <v>19.36592289407941</v>
       </c>
       <c r="I15">
-        <v>20.10764810577119</v>
+        <v>27.79813377840045</v>
       </c>
       <c r="J15">
-        <v>6.370127193730254</v>
+        <v>9.442643887479459</v>
       </c>
       <c r="K15">
-        <v>17.19942112407243</v>
+        <v>14.97668442052581</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>12.97165254522479</v>
+        <v>21.02251244093173</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.93801018024269</v>
+        <v>14.23432980123463</v>
       </c>
       <c r="C16">
-        <v>13.17290732055842</v>
+        <v>10.44254276856432</v>
       </c>
       <c r="D16">
-        <v>14.07183705558672</v>
+        <v>15.3826174755033</v>
       </c>
       <c r="E16">
-        <v>15.19712819972052</v>
+        <v>16.81660522576578</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>45.23750446391791</v>
+        <v>50.29598483926356</v>
       </c>
       <c r="H16">
-        <v>13.40807491416626</v>
+        <v>19.37636954637834</v>
       </c>
       <c r="I16">
-        <v>19.94615306600563</v>
+        <v>27.81361967187065</v>
       </c>
       <c r="J16">
-        <v>6.289036979253745</v>
+        <v>9.443317286106907</v>
       </c>
       <c r="K16">
-        <v>16.6144527702466</v>
+        <v>14.85718543231447</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>13.12268008557825</v>
+        <v>21.0618964007625</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.54219284334943</v>
+        <v>14.13046373774959</v>
       </c>
       <c r="C17">
-        <v>12.87726561254149</v>
+        <v>10.36656389039275</v>
       </c>
       <c r="D17">
-        <v>13.84136837409069</v>
+        <v>15.34728292716105</v>
       </c>
       <c r="E17">
-        <v>14.95059819193631</v>
+        <v>16.78063487644899</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>44.66172416434733</v>
+        <v>50.22735971686348</v>
       </c>
       <c r="H17">
-        <v>13.34283004950747</v>
+        <v>19.3836807845707</v>
       </c>
       <c r="I17">
-        <v>19.85232209754837</v>
+        <v>27.82453197002537</v>
       </c>
       <c r="J17">
-        <v>6.240098788532769</v>
+        <v>9.444120747487489</v>
       </c>
       <c r="K17">
-        <v>16.24798053794148</v>
+        <v>14.78428927106039</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>13.21623093818176</v>
+        <v>21.08655983968339</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.3114248803099</v>
+        <v>14.07069523201189</v>
       </c>
       <c r="C18">
-        <v>12.70519599401177</v>
+        <v>10.32287281147158</v>
       </c>
       <c r="D18">
-        <v>13.70831258503553</v>
+        <v>15.32726270567236</v>
       </c>
       <c r="E18">
-        <v>14.80834588201014</v>
+        <v>16.76028471594083</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>44.33286706458009</v>
+        <v>50.18912993839595</v>
       </c>
       <c r="H18">
-        <v>13.30641384691572</v>
+        <v>19.38821745985064</v>
       </c>
       <c r="I18">
-        <v>19.80022962298034</v>
+        <v>27.83132679417266</v>
       </c>
       <c r="J18">
-        <v>6.21224608453298</v>
+        <v>9.444726449410263</v>
       </c>
       <c r="K18">
-        <v>16.03436277945108</v>
+        <v>14.7425267119783</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>13.27036961235953</v>
+        <v>21.10093056651883</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.23275451344437</v>
+        <v>14.05045609141281</v>
       </c>
       <c r="C19">
-        <v>12.64658608319031</v>
+        <v>10.30808305811154</v>
       </c>
       <c r="D19">
-        <v>13.66317874202443</v>
+        <v>15.32053673220333</v>
       </c>
       <c r="E19">
-        <v>14.76010546063434</v>
+        <v>16.75345316351086</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>44.22192077377608</v>
+        <v>50.17639982729614</v>
       </c>
       <c r="H19">
-        <v>13.29427222030505</v>
+        <v>19.38981040145113</v>
       </c>
       <c r="I19">
-        <v>19.78290965584669</v>
+        <v>27.83371637158019</v>
       </c>
       <c r="J19">
-        <v>6.202866208865506</v>
+        <v>9.444956198611445</v>
       </c>
       <c r="K19">
-        <v>15.96154574998766</v>
+        <v>14.72841633683518</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>13.28875685742837</v>
+        <v>21.10582803984554</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.58464880731997</v>
+        <v>14.14152381719858</v>
       </c>
       <c r="C20">
-        <v>12.90894610474083</v>
+        <v>10.37465131611806</v>
       </c>
       <c r="D20">
-        <v>13.8659539351955</v>
+        <v>15.35101306779477</v>
       </c>
       <c r="E20">
-        <v>14.9768892265837</v>
+        <v>16.78442899650336</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>44.72277747280005</v>
+        <v>50.23453662269961</v>
       </c>
       <c r="H20">
-        <v>13.34965989882564</v>
+        <v>19.38286818172868</v>
       </c>
       <c r="I20">
-        <v>19.86211523208246</v>
+        <v>27.82331667444976</v>
       </c>
       <c r="J20">
-        <v>6.245277751202447</v>
+        <v>9.444020360972292</v>
       </c>
       <c r="K20">
-        <v>16.2872845275508</v>
+        <v>14.79203238535906</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>13.20623806724433</v>
+        <v>21.08391523642799</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.73011537979182</v>
+        <v>14.44701225419333</v>
       </c>
       <c r="C21">
-        <v>13.76644379495583</v>
+        <v>10.59831494608864</v>
       </c>
       <c r="D21">
-        <v>14.54121046766936</v>
+        <v>15.45699940073597</v>
       </c>
       <c r="E21">
-        <v>15.69970522909146</v>
+        <v>16.8925213476872</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>46.43321321684787</v>
+        <v>50.44465572307969</v>
       </c>
       <c r="H21">
-        <v>13.54921702023659</v>
+        <v>19.36350498898129</v>
       </c>
       <c r="I21">
-        <v>20.15100387787071</v>
+        <v>27.79457270084725</v>
       </c>
       <c r="J21">
-        <v>6.391314526082802</v>
+        <v>9.442590605192262</v>
       </c>
       <c r="K21">
-        <v>17.34812398246138</v>
+        <v>15.00765306317077</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.93293908788913</v>
+        <v>21.01249947992943</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.45184297316893</v>
+        <v>14.64594830217395</v>
       </c>
       <c r="C22">
-        <v>14.30944229196122</v>
+        <v>10.74423428596093</v>
       </c>
       <c r="D22">
-        <v>14.97782179679834</v>
+        <v>15.52886534525599</v>
       </c>
       <c r="E22">
-        <v>16.16776229051366</v>
+        <v>16.96608364264464</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>47.5716438605435</v>
+        <v>50.59288962093104</v>
       </c>
       <c r="H22">
-        <v>13.69010971230003</v>
+        <v>19.35380625269463</v>
       </c>
       <c r="I22">
-        <v>20.35757862091102</v>
+        <v>27.78041531328347</v>
       </c>
       <c r="J22">
-        <v>6.489429135812533</v>
+        <v>9.442931939714697</v>
       </c>
       <c r="K22">
-        <v>18.01697891443399</v>
+        <v>15.1497544789511</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>12.75728055364558</v>
+        <v>20.96746712635257</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.06906715158709</v>
+        <v>14.53986049298386</v>
       </c>
       <c r="C23">
-        <v>14.02119671627134</v>
+        <v>10.66639438381345</v>
       </c>
       <c r="D23">
-        <v>14.74523424447931</v>
+        <v>15.4902765746073</v>
       </c>
       <c r="E23">
-        <v>15.91835829463584</v>
+        <v>16.9265601639523</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>46.9621546517977</v>
+        <v>50.51278391990378</v>
       </c>
       <c r="H23">
-        <v>13.61392599191078</v>
+        <v>19.35871195647251</v>
       </c>
       <c r="I23">
-        <v>20.24564792346955</v>
+        <v>27.78754732103713</v>
       </c>
       <c r="J23">
-        <v>6.43681656063667</v>
+        <v>9.44263318004432</v>
       </c>
       <c r="K23">
-        <v>17.66219860969571</v>
+        <v>15.07381831949305</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>12.85076066741192</v>
+        <v>20.99135174601933</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.56546446404902</v>
+        <v>14.13652371971682</v>
       </c>
       <c r="C24">
-        <v>12.89462990551624</v>
+        <v>10.37099501757777</v>
       </c>
       <c r="D24">
-        <v>13.85484053187021</v>
+        <v>15.34932575406961</v>
       </c>
       <c r="E24">
-        <v>14.96500466220348</v>
+        <v>16.78271264684628</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>44.69516852142295</v>
+        <v>50.23128813003122</v>
       </c>
       <c r="H24">
-        <v>13.34656872290905</v>
+        <v>19.38323452109313</v>
       </c>
       <c r="I24">
-        <v>19.85768199842088</v>
+        <v>27.82386448611686</v>
       </c>
       <c r="J24">
-        <v>6.242935462608775</v>
+        <v>9.444065297820302</v>
       </c>
       <c r="K24">
-        <v>16.26952432208986</v>
+        <v>14.78853126401999</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>13.21075473835709</v>
+        <v>21.08511026527232</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.82453338150954</v>
+        <v>13.70071146823354</v>
       </c>
       <c r="C25">
-        <v>11.61615801071127</v>
+        <v>10.0529595603479</v>
       </c>
       <c r="D25">
-        <v>12.8758266787815</v>
+        <v>15.20893445112801</v>
       </c>
       <c r="E25">
-        <v>13.91968748731982</v>
+        <v>16.64056215885693</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>42.33881774468963</v>
+        <v>49.97517393624462</v>
       </c>
       <c r="H25">
-        <v>13.10032735305604</v>
+        <v>19.42235340639459</v>
       </c>
       <c r="I25">
-        <v>19.51033575168109</v>
+        <v>27.8828460262331</v>
       </c>
       <c r="J25">
-        <v>6.045084310577527</v>
+        <v>9.451099799937733</v>
       </c>
       <c r="K25">
-        <v>14.65861796707395</v>
+        <v>14.48729756114536</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>13.61173587248201</v>
+        <v>21.19331925835288</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_71/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_71/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.38179432741989</v>
+        <v>14.43650958441638</v>
       </c>
       <c r="C2">
-        <v>9.821207075173829</v>
+        <v>10.68248494933574</v>
       </c>
       <c r="D2">
-        <v>15.11605234562326</v>
+        <v>12.14179866625412</v>
       </c>
       <c r="E2">
-        <v>16.54754509988564</v>
+        <v>13.13835191600485</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>49.82800970855569</v>
+        <v>40.68229349055706</v>
       </c>
       <c r="H2">
-        <v>19.46201495482082</v>
+        <v>12.95217412051368</v>
       </c>
       <c r="I2">
-        <v>27.94322330669623</v>
+        <v>19.3100552881427</v>
       </c>
       <c r="J2">
-        <v>9.461007956457282</v>
+        <v>5.908941574687752</v>
       </c>
       <c r="K2">
-        <v>14.2725942627142</v>
+        <v>13.37512945555447</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>21.27912208954055</v>
+        <v>13.91805014613649</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.16826753186891</v>
+        <v>13.43404884329734</v>
       </c>
       <c r="C3">
-        <v>9.666647065647995</v>
+        <v>10.01785424202223</v>
       </c>
       <c r="D3">
-        <v>15.05985833177668</v>
+        <v>11.63826926052425</v>
       </c>
       <c r="E3">
-        <v>16.49197439685554</v>
+        <v>12.6038111970372</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>49.75429207266262</v>
+        <v>39.61024994619327</v>
       </c>
       <c r="H3">
-        <v>19.49564544420134</v>
+        <v>12.87090281442031</v>
       </c>
       <c r="I3">
-        <v>27.9946642613009</v>
+        <v>19.20605108175268</v>
       </c>
       <c r="J3">
-        <v>9.470674058074998</v>
+        <v>5.822565383321552</v>
       </c>
       <c r="K3">
-        <v>14.13226323546643</v>
+        <v>12.59139349358707</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>21.34111704883852</v>
+        <v>14.13270220631829</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.03891796896394</v>
+        <v>12.85777915739121</v>
       </c>
       <c r="C4">
-        <v>9.573317528262857</v>
+        <v>9.594522214670327</v>
       </c>
       <c r="D4">
-        <v>15.02874844705138</v>
+        <v>11.32704665721348</v>
       </c>
       <c r="E4">
-        <v>16.46159628712114</v>
+        <v>12.27410945788617</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>49.72189924423194</v>
+        <v>38.97760956366278</v>
       </c>
       <c r="H4">
-        <v>19.51961667842892</v>
+        <v>12.82992227217796</v>
       </c>
       <c r="I4">
-        <v>28.0314211882182</v>
+        <v>19.15688079922166</v>
       </c>
       <c r="J4">
-        <v>9.478064807865408</v>
+        <v>5.772416371671936</v>
       </c>
       <c r="K4">
-        <v>14.04889636946693</v>
+        <v>12.10952743564579</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>21.38108631688144</v>
+        <v>14.26804362392297</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.98672042628981</v>
+        <v>12.61710493134054</v>
       </c>
       <c r="C5">
-        <v>9.535731069025626</v>
+        <v>9.418284893302076</v>
       </c>
       <c r="D5">
-        <v>15.01693301909318</v>
+        <v>11.19987042628989</v>
       </c>
       <c r="E5">
-        <v>16.45016628363581</v>
+        <v>12.13955137167578</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>49.71193900943327</v>
+        <v>38.72633887799595</v>
       </c>
       <c r="H5">
-        <v>19.53021924043901</v>
+        <v>12.81538836829253</v>
       </c>
       <c r="I5">
-        <v>28.0476976660889</v>
+        <v>19.14039397559662</v>
       </c>
       <c r="J5">
-        <v>9.481442648853584</v>
+        <v>5.752703217135886</v>
       </c>
       <c r="K5">
-        <v>14.01566307864856</v>
+        <v>11.90940057556926</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>21.39785388777137</v>
+        <v>14.32409706260707</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.97808616108288</v>
+        <v>12.5767931259523</v>
       </c>
       <c r="C6">
-        <v>9.529518287474982</v>
+        <v>9.388799629204826</v>
       </c>
       <c r="D6">
-        <v>15.01502338113051</v>
+        <v>11.17873698192832</v>
       </c>
       <c r="E6">
-        <v>16.44832589589446</v>
+        <v>12.11720136014437</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>49.71048086848104</v>
+        <v>38.68501294348091</v>
       </c>
       <c r="H6">
-        <v>19.53203012584893</v>
+        <v>12.81310357426133</v>
       </c>
       <c r="I6">
-        <v>28.05047865657634</v>
+        <v>19.13786658664776</v>
       </c>
       <c r="J6">
-        <v>9.482025643817838</v>
+        <v>5.749473427135532</v>
       </c>
       <c r="K6">
-        <v>14.01019039764888</v>
+        <v>11.87594869198236</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>21.40066713560349</v>
+        <v>14.33345938598522</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.03821184133579</v>
+        <v>12.85455678112434</v>
       </c>
       <c r="C7">
-        <v>9.572808750987333</v>
+        <v>9.592160334721253</v>
       </c>
       <c r="D7">
-        <v>15.02858559861631</v>
+        <v>11.32533269913828</v>
       </c>
       <c r="E7">
-        <v>16.46143828426771</v>
+        <v>12.27229533445166</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>49.72175179523244</v>
+        <v>38.9741942556566</v>
       </c>
       <c r="H7">
-        <v>19.51975629288252</v>
+        <v>12.82971759530568</v>
       </c>
       <c r="I7">
-        <v>28.03163544795392</v>
+        <v>19.15664426625223</v>
       </c>
       <c r="J7">
-        <v>9.478108880546163</v>
+        <v>5.77214759029151</v>
       </c>
       <c r="K7">
-        <v>14.04844513342764</v>
+        <v>12.10684341235196</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>21.3813105063867</v>
+        <v>14.26879592011031</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.30784879736589</v>
+        <v>14.09575489558387</v>
       </c>
       <c r="C8">
-        <v>9.767619540485031</v>
+        <v>10.45653841422352</v>
       </c>
       <c r="D8">
-        <v>15.09597792318332</v>
+        <v>11.96870097673375</v>
       </c>
       <c r="E8">
-        <v>16.52761282910087</v>
+        <v>12.95444916599944</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>49.79992382841471</v>
+        <v>40.3074012101985</v>
       </c>
       <c r="H8">
-        <v>19.4729205529598</v>
+        <v>12.92225420974379</v>
       </c>
       <c r="I8">
-        <v>27.95988507780245</v>
+        <v>19.27106017303329</v>
       </c>
       <c r="J8">
-        <v>9.464038709866442</v>
+        <v>5.878558545846795</v>
       </c>
       <c r="K8">
-        <v>14.22364969478401</v>
+        <v>13.0921943016532</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>21.3001033354688</v>
+        <v>13.99133207516068</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.84738921259609</v>
+        <v>16.42722246457066</v>
       </c>
       <c r="C9">
-        <v>10.15984522275789</v>
+        <v>12.04793104089398</v>
       </c>
       <c r="D9">
-        <v>15.254626493454</v>
+        <v>13.20788973395977</v>
       </c>
       <c r="E9">
-        <v>16.68666548146455</v>
+        <v>14.2738616766095</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>50.05504464462312</v>
+        <v>43.12055759079136</v>
       </c>
       <c r="H9">
-        <v>19.40748675069674</v>
+        <v>13.17791860528414</v>
       </c>
       <c r="I9">
-        <v>27.86033889999142</v>
+        <v>19.61834225319368</v>
       </c>
       <c r="J9">
-        <v>9.447996026827973</v>
+        <v>6.110241013559606</v>
       </c>
       <c r="K9">
-        <v>14.58776768072216</v>
+        <v>15.21613128411987</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>21.15591973487927</v>
+        <v>13.47496091417432</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.24617627047738</v>
+        <v>17.9827574815669</v>
       </c>
       <c r="C10">
-        <v>10.45121263485618</v>
+        <v>13.20636969610499</v>
       </c>
       <c r="D10">
-        <v>15.3866901468615</v>
+        <v>14.09806662387451</v>
       </c>
       <c r="E10">
-        <v>16.82075529777097</v>
+        <v>15.22519605758076</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>50.30398321372026</v>
+        <v>45.30351815538663</v>
       </c>
       <c r="H10">
-        <v>19.37558021312326</v>
+        <v>13.41567227997064</v>
       </c>
       <c r="I10">
-        <v>27.81244478808573</v>
+        <v>19.95711769091654</v>
       </c>
       <c r="J10">
-        <v>9.443245051793406</v>
+        <v>6.294661289380267</v>
       </c>
       <c r="K10">
-        <v>14.86552480499259</v>
+        <v>16.65588846784232</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>21.05910717686086</v>
+        <v>13.11205009210234</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.42725162762469</v>
+        <v>18.65747072467785</v>
       </c>
       <c r="C11">
-        <v>10.5838315514214</v>
+        <v>13.71190483504101</v>
       </c>
       <c r="D11">
-        <v>15.44997857558337</v>
+        <v>14.49772587764432</v>
       </c>
       <c r="E11">
-        <v>16.88534542754508</v>
+        <v>15.65311769711306</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>50.43040202523132</v>
+        <v>46.32118224351483</v>
       </c>
       <c r="H11">
-        <v>19.36458746058991</v>
+        <v>13.53568492052222</v>
       </c>
       <c r="I11">
-        <v>27.79616568421258</v>
+        <v>20.13126536753116</v>
       </c>
       <c r="J11">
-        <v>9.442608846861743</v>
+        <v>6.381696651026335</v>
       </c>
       <c r="K11">
-        <v>14.99360776174957</v>
+        <v>17.28082129952929</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>21.01703134016554</v>
+        <v>12.9504764900146</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.49570292811852</v>
+        <v>18.90834516462076</v>
       </c>
       <c r="C12">
-        <v>10.63401107575497</v>
+        <v>13.90034206417002</v>
       </c>
       <c r="D12">
-        <v>15.47439148782505</v>
+        <v>14.64826135112232</v>
       </c>
       <c r="E12">
-        <v>16.91030614704051</v>
+        <v>15.81441764187591</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>50.48014767080872</v>
+        <v>46.71007299592247</v>
       </c>
       <c r="H12">
-        <v>19.36093188446038</v>
+        <v>13.58292038959728</v>
       </c>
       <c r="I12">
-        <v>27.79079509656031</v>
+        <v>20.20024710750541</v>
       </c>
       <c r="J12">
-        <v>9.442586844540852</v>
+        <v>6.415112544627767</v>
       </c>
       <c r="K12">
-        <v>15.04231596496779</v>
+        <v>17.51326276793604</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>21.00137989335181</v>
+        <v>12.88979896680199</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.48096704816838</v>
+        <v>18.85451875753329</v>
       </c>
       <c r="C13">
-        <v>10.62320660787971</v>
+        <v>13.85989057465157</v>
       </c>
       <c r="D13">
-        <v>15.46911409780287</v>
+        <v>14.61587722057246</v>
       </c>
       <c r="E13">
-        <v>16.90490833308327</v>
+        <v>15.7797124280607</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>50.46935109315061</v>
+        <v>46.62616151882202</v>
       </c>
       <c r="H13">
-        <v>19.36169661306526</v>
+        <v>13.57266643710348</v>
       </c>
       <c r="I13">
-        <v>27.79191641017301</v>
+        <v>20.18525314231848</v>
       </c>
       <c r="J13">
-        <v>9.442581853884201</v>
+        <v>6.40789536984983</v>
       </c>
       <c r="K13">
-        <v>15.0318173011259</v>
+        <v>17.46338761448965</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>21.00473819300112</v>
+        <v>12.9028443507064</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.4328859130556</v>
+        <v>18.67820235996046</v>
       </c>
       <c r="C14">
-        <v>10.58796094672831</v>
+        <v>13.72746722830803</v>
       </c>
       <c r="D14">
-        <v>15.45197817115405</v>
+        <v>14.51012687541462</v>
       </c>
       <c r="E14">
-        <v>16.88738899055044</v>
+        <v>15.66640305038018</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>50.43445721067583</v>
+        <v>46.35310584990207</v>
       </c>
       <c r="H14">
-        <v>19.36427654668875</v>
+        <v>13.53953465909799</v>
       </c>
       <c r="I14">
-        <v>27.79570792085074</v>
+        <v>20.13687879843966</v>
       </c>
       <c r="J14">
-        <v>9.442602651849597</v>
+        <v>6.384436586532631</v>
       </c>
       <c r="K14">
-        <v>14.99761113162658</v>
+        <v>17.30002805721027</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>21.01573804361726</v>
+        <v>12.94547433362887</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.403417433249</v>
+        <v>18.56960451252482</v>
       </c>
       <c r="C15">
-        <v>10.56636521652736</v>
+        <v>13.64596643482027</v>
       </c>
       <c r="D15">
-        <v>15.44153967193721</v>
+        <v>14.4452456793838</v>
       </c>
       <c r="E15">
-        <v>16.87672279097873</v>
+        <v>15.59689981077103</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>50.41332702294169</v>
+        <v>46.18631044330477</v>
       </c>
       <c r="H15">
-        <v>19.36592289407941</v>
+        <v>13.51947605083221</v>
       </c>
       <c r="I15">
-        <v>27.79813377840045</v>
+        <v>20.10764810577118</v>
       </c>
       <c r="J15">
-        <v>9.442643887479459</v>
+        <v>6.370127193730275</v>
       </c>
       <c r="K15">
-        <v>14.97668442052581</v>
+        <v>17.19942112407248</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>21.02251244093173</v>
+        <v>12.97165254522472</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.23432980123463</v>
+        <v>17.93801018024269</v>
       </c>
       <c r="C16">
-        <v>10.44254276856432</v>
+        <v>13.17290732055842</v>
       </c>
       <c r="D16">
-        <v>15.3826174755033</v>
+        <v>14.07183705558669</v>
       </c>
       <c r="E16">
-        <v>16.81660522576578</v>
+        <v>15.19712819972055</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>50.29598483926356</v>
+        <v>45.2375044639179</v>
       </c>
       <c r="H16">
-        <v>19.37636954637834</v>
+        <v>13.40807491416626</v>
       </c>
       <c r="I16">
-        <v>27.81361967187065</v>
+        <v>19.94615306600566</v>
       </c>
       <c r="J16">
-        <v>9.443317286106907</v>
+        <v>6.289036979253771</v>
       </c>
       <c r="K16">
-        <v>14.85718543231447</v>
+        <v>16.61445277024659</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>21.0618964007625</v>
+        <v>13.12268008557827</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.13046373774959</v>
+        <v>17.54219284334951</v>
       </c>
       <c r="C17">
-        <v>10.36656389039275</v>
+        <v>12.87726561254136</v>
       </c>
       <c r="D17">
-        <v>15.34728292716105</v>
+        <v>13.84136837409064</v>
       </c>
       <c r="E17">
-        <v>16.78063487644899</v>
+        <v>14.95059819193629</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>50.22735971686348</v>
+        <v>44.66172416434752</v>
       </c>
       <c r="H17">
-        <v>19.3836807845707</v>
+        <v>13.34283004950749</v>
       </c>
       <c r="I17">
-        <v>27.82453197002537</v>
+        <v>19.8523220975484</v>
       </c>
       <c r="J17">
-        <v>9.444120747487489</v>
+        <v>6.240098788532797</v>
       </c>
       <c r="K17">
-        <v>14.78428927106039</v>
+        <v>16.24798053794149</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>21.08655983968339</v>
+        <v>13.21623093818177</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.07069523201189</v>
+        <v>17.31142488030994</v>
       </c>
       <c r="C18">
-        <v>10.32287281147158</v>
+        <v>12.70519599401174</v>
       </c>
       <c r="D18">
-        <v>15.32726270567236</v>
+        <v>13.70831258503555</v>
       </c>
       <c r="E18">
-        <v>16.76028471594083</v>
+        <v>14.80834588201018</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>50.18912993839595</v>
+        <v>44.33286706458025</v>
       </c>
       <c r="H18">
-        <v>19.38821745985064</v>
+        <v>13.30641384691574</v>
       </c>
       <c r="I18">
-        <v>27.83132679417266</v>
+        <v>19.80022962298038</v>
       </c>
       <c r="J18">
-        <v>9.444726449410263</v>
+        <v>6.212246084533</v>
       </c>
       <c r="K18">
-        <v>14.7425267119783</v>
+        <v>16.03436277945107</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>21.10093056651883</v>
+        <v>13.27036961235954</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.05045609141281</v>
+        <v>17.23275451344442</v>
       </c>
       <c r="C19">
-        <v>10.30808305811154</v>
+        <v>12.64658608319039</v>
       </c>
       <c r="D19">
-        <v>15.32053673220333</v>
+        <v>13.66317874202446</v>
       </c>
       <c r="E19">
-        <v>16.75345316351086</v>
+        <v>14.76010546063434</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>50.17639982729614</v>
+        <v>44.22192077377581</v>
       </c>
       <c r="H19">
-        <v>19.38981040145113</v>
+        <v>13.29427222030498</v>
       </c>
       <c r="I19">
-        <v>27.83371637158019</v>
+        <v>19.78290965584654</v>
       </c>
       <c r="J19">
-        <v>9.444956198611445</v>
+        <v>6.202866208865418</v>
       </c>
       <c r="K19">
-        <v>14.72841633683518</v>
+        <v>15.96154574998769</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>21.10582803984554</v>
+        <v>13.28875685742821</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.14152381719858</v>
+        <v>17.58464880731995</v>
       </c>
       <c r="C20">
-        <v>10.37465131611806</v>
+        <v>12.90894610474087</v>
       </c>
       <c r="D20">
-        <v>15.35101306779477</v>
+        <v>13.86595393519553</v>
       </c>
       <c r="E20">
-        <v>16.78442899650336</v>
+        <v>14.97688922658371</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>50.23453662269961</v>
+        <v>44.7227774728001</v>
       </c>
       <c r="H20">
-        <v>19.38286818172868</v>
+        <v>13.34965989882573</v>
       </c>
       <c r="I20">
-        <v>27.82331667444976</v>
+        <v>19.86211523208256</v>
       </c>
       <c r="J20">
-        <v>9.444020360972292</v>
+        <v>6.245277751202456</v>
       </c>
       <c r="K20">
-        <v>14.79203238535906</v>
+        <v>16.28728452755078</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>21.08391523642799</v>
+        <v>13.20623806724437</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.44701225419333</v>
+        <v>18.73011537979187</v>
       </c>
       <c r="C21">
-        <v>10.59831494608864</v>
+        <v>13.76644379495585</v>
       </c>
       <c r="D21">
-        <v>15.45699940073597</v>
+        <v>14.54121046766939</v>
       </c>
       <c r="E21">
-        <v>16.8925213476872</v>
+        <v>15.69970522909144</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>50.44465572307969</v>
+        <v>46.4332132168479</v>
       </c>
       <c r="H21">
-        <v>19.36350498898129</v>
+        <v>13.54921702023654</v>
       </c>
       <c r="I21">
-        <v>27.79457270084725</v>
+        <v>20.15100387787073</v>
       </c>
       <c r="J21">
-        <v>9.442590605192262</v>
+        <v>6.391314526082767</v>
       </c>
       <c r="K21">
-        <v>15.00765306317077</v>
+        <v>17.34812398246142</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>21.01249947992943</v>
+        <v>12.93293908788914</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.64594830217395</v>
+        <v>19.45184297316885</v>
       </c>
       <c r="C22">
-        <v>10.74423428596093</v>
+        <v>14.30944229196122</v>
       </c>
       <c r="D22">
-        <v>15.52886534525599</v>
+        <v>14.97782179679834</v>
       </c>
       <c r="E22">
-        <v>16.96608364264464</v>
+        <v>16.16776229051365</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>50.59288962093104</v>
+        <v>47.57164386054362</v>
       </c>
       <c r="H22">
-        <v>19.35380625269463</v>
+        <v>13.69010971230009</v>
       </c>
       <c r="I22">
-        <v>27.78041531328347</v>
+        <v>20.35757862091117</v>
       </c>
       <c r="J22">
-        <v>9.442931939714697</v>
+        <v>6.489429135812473</v>
       </c>
       <c r="K22">
-        <v>15.1497544789511</v>
+        <v>18.01697891443394</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>20.96746712635257</v>
+        <v>12.75728055364577</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.53986049298386</v>
+        <v>19.06906715158715</v>
       </c>
       <c r="C23">
-        <v>10.66639438381345</v>
+        <v>14.02119671627142</v>
       </c>
       <c r="D23">
-        <v>15.4902765746073</v>
+        <v>14.7452342444793</v>
       </c>
       <c r="E23">
-        <v>16.9265601639523</v>
+        <v>15.91835829463581</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>50.51278391990378</v>
+        <v>46.96215465179763</v>
       </c>
       <c r="H23">
-        <v>19.35871195647251</v>
+        <v>13.61392599191071</v>
       </c>
       <c r="I23">
-        <v>27.78754732103713</v>
+        <v>20.24564792346952</v>
       </c>
       <c r="J23">
-        <v>9.44263318004432</v>
+        <v>6.436816560636655</v>
       </c>
       <c r="K23">
-        <v>15.07381831949305</v>
+        <v>17.66219860969576</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>20.99135174601933</v>
+        <v>12.85076066741188</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.13652371971682</v>
+        <v>17.56546446404908</v>
       </c>
       <c r="C24">
-        <v>10.37099501757777</v>
+        <v>12.89462990551625</v>
       </c>
       <c r="D24">
-        <v>15.34932575406961</v>
+        <v>13.85484053187018</v>
       </c>
       <c r="E24">
-        <v>16.78271264684628</v>
+        <v>14.96500466220347</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>50.23128813003122</v>
+        <v>44.69516852142285</v>
       </c>
       <c r="H24">
-        <v>19.38323452109313</v>
+        <v>13.34656872290899</v>
       </c>
       <c r="I24">
-        <v>27.82386448611686</v>
+        <v>19.85768199842079</v>
       </c>
       <c r="J24">
-        <v>9.444065297820302</v>
+        <v>6.242935462608816</v>
       </c>
       <c r="K24">
-        <v>14.78853126401999</v>
+        <v>16.2695243220899</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>21.08511026527232</v>
+        <v>13.21075473835704</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.70071146823354</v>
+        <v>15.82453338150957</v>
       </c>
       <c r="C25">
-        <v>10.0529595603479</v>
+        <v>11.61615801071124</v>
       </c>
       <c r="D25">
-        <v>15.20893445112801</v>
+        <v>12.87582667878145</v>
       </c>
       <c r="E25">
-        <v>16.64056215885693</v>
+        <v>13.91968748731981</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>49.97517393624462</v>
+        <v>42.33881774468961</v>
       </c>
       <c r="H25">
-        <v>19.42235340639459</v>
+        <v>13.10032735305603</v>
       </c>
       <c r="I25">
-        <v>27.8828460262331</v>
+        <v>19.51033575168106</v>
       </c>
       <c r="J25">
-        <v>9.451099799937733</v>
+        <v>6.045084310577564</v>
       </c>
       <c r="K25">
-        <v>14.48729756114536</v>
+        <v>14.65861796707396</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>21.19331925835288</v>
+        <v>13.611735872482</v>
       </c>
       <c r="O25">
         <v>0</v>
